--- a/traitement/export_user.xlsx
+++ b/traitement/export_user.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>NOM</t>
   </si>
@@ -36,6 +35,9 @@
     <t>a@a</t>
   </si>
   <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -64,6 +66,12 @@
   </si>
   <si>
     <t>lemoine.sebastien15@gmail.com</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>ADMIN@ADMIN</t>
   </si>
 </sst>
 </file>
@@ -405,15 +413,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,45 +435,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
         <v>10</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -473,11 +492,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
         <v>13</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -485,7 +507,27 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -501,32 +543,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/traitement/export_user.xlsx
+++ b/traitement/export_user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>NOM</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ADMIN@ADMIN</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
